--- a/proposal_extract/Arbitrum.xlsx
+++ b/proposal_extract/Arbitrum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,37 +481,37 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>off_chain_author</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>off_chain_start_date</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>off_chain_end_date</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>prelim_sentiments</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>prelim_discussion_start_date</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>prelim_author</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>prelim_location</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>off_chain_author</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>off_chain_start_date</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>off_chain_end_date</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -536,45 +536,408 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Update Security Council Election Start Date to Ensure Time for Security AuditArbitrum DAO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Created 14 hours ago</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Preliminary Discussion</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Preliminary Discussion</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Governance Update</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://messari.io//governor/proposal/5a2af77a-4470-4ad1-b0da-4c11cde88c4d?daoSlug=arbitrum&amp;daoTab=proposals</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SummaryThis proposal aims to revise the ArbitrumDAO Constitution to provide flexibility for the start date of the election. Currently, the Constitution specifies that the first Security Council election should start on the 15th of September alongside a specification for the election. The new start date will be on the 15th of September or the earliest possible date when an on-chain election can begin.
+The proposal explains that the motivation to change the election’s start date is to provide time for the on-chain implementation of the election to be completed and for security audits to be performed. The proposal will approve the following mandatory conditions before the election can be held:
+Complete implementation for the on-chain smart contracts.
+Complete implementation of the user interface.
+Smart contract audit by a highly regarded auditing firm.
+All parties, including the Arbitrum DAO, have gained confidence in the implementation’s completeness and security.
+Successful Constitutional Vote by the DAO to install the new election software.
+</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Neutral Sentiment</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Started 14 hours ago</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>ArbitrumSystem</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Arbitrum Forum</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Security Council Elections Proposed Implementation SpecArbitrum DAO</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Created 14 hours ago</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Preliminary Discussion</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Preliminary Discussion</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Team and Operations</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Project Team</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://messari.io//governor/proposal/3f786291-edad-45d5-9148-b405d90ffbbc?daoSlug=arbitrum&amp;daoTab=proposals</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SummaryThis proposal aims to replace the first cohort of the Security Council Members as outlined in Section 4 of the Constitution.
+Candidates that receive support from 0.2% of total votable tokens will undergo a compliance check by the Foundation. Once a set of compliant candidates have been successfully nominated, votes are cast, and the top six nominees are selected.
+The new Security Council members will be installed into the following four Gnosis Safes:
+Arbitrum One 9-of-12 Emergency Security Council.
+Arbitrum One 7-of-12 Non-Emergency Security Council.
+Ethereum 9-of-12 Emergency Security Council.
+Nova 9-of-12 Emergency Security Council.
+</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Neutral Sentiment</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Started 14 hours ago</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>ArbitrumSystem</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Arbitrum Forum</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Arbitrum Grants DAOArbitrum DAO</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Created 11 days ago</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Preliminary Discussion</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Preliminary Discussion</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Team and Operations</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Grant Program</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://messari.io//governor/proposal/502289f1-5a16-450e-97fb-550fc3c4df24?daoSlug=arbitrum&amp;daoTab=proposals</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SummaryThis proposal aims to launch an Arbitrum Grants DAO, a community-run grants program intended to build a strong developer community around Arbitrum. The proposal suggests running the pilot grants program over six months, with a maximum grants budget of $10 million in ARB and a max operating budget of $350,000. The proposal states that 70% of the funding will be directed to standard grants and 30% to retroactive grants.
+The following structure is proposed:
+Start with eight reviewers who are members of Arbitrum Grants DAO.
+When a new grant is issued, the grantee is added to the Grants DAO with the permission to approve new grants.
+Grants will be approved in the following manner:
+Grants below $20,000 require two of the original eight members to approve.
+Grants between $20,000 and $100,000 require 20% of the Grants DAO to approve.
+Grants above $100,000 require ARB tokenholder approval.
+The proposal outlines the following KPIs to be tracked over 6-12 months:
+Growth in users.
+Growth in volume.
+Growth in revenue.
+Increase in contributors.
+Growth in events.
+Growth in developer activity.
+Increase in governance participation.
+</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Neutral Sentiment</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Started on Jul 4, 2023</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Shreyas Hariharan</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Arbitrum Forum</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Accelerating Arbitrum - Leveraging Camelot as an Ecosystem Hub to Support Native BuildersArbitrum DAO</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Created 16 days ago</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Off-Chain Vote</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Active Vote</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Token Supply</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Liquidity Mining Program</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://messari.io//governor/proposal/6faad660-5b2f-4c48-b4c3-1fe07ce1fe42?daoSlug=arbitrum&amp;daoTab=proposals</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>SummaryThis proposal requests a total of 9 million ARB to fund liquidity incentives for Arbitrum-focused projects on Camelot. The proposal states that it will support deeper spot liquidity for Arbitrum-native builders and support integration partners and the launch of new protocols. The proposal suggests granting Camelot DAO 1.5 million ARB per month for six months.
+The proposal explains that liquidity incentives will be distributed across four different categories as follows:
+Ecosystem Builders: 75%.
+Core Pairs: 15%.
+Liquid Staking Derivatives: 10%.
+The proposal also states that Camelot will produce monthly transparency reports detailing how every ARB token is allocated and the progress towards the proposal objectives no later than 72 hours before the next month's incentives are distributed and host bi-weekly public community call to discuss the performance and progress of the grant and the transparency report in further detail. Camelot will commit to placing its own 2.189 million ARB, which is currently used to participate in governance, into the grant multisig for the duration of the six-month proposal, therefore at any given time, Camelot will have “guaranteed” more ARB than it would receive from the Arbitrum DAO.</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0x2e3bef68...6b88c147bf</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Start DateJul 15, 2023</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>End DateJul 22, 2023</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Negative Sentiment</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Started on Jun 30, 2023</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Camelot</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Arbitrum Forum</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>For14.14M Votes92.02</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Against1.22M Votes7.92</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Abstain8.13K Votes0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Rarible IntegrationArbitrum DAO</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Created 4 hours ago</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Created 18 days ago</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>Preliminary Discussion</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Preliminary Discussion</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Team and Operations</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Partnership</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://messari.io//governor/proposal/a3b26bd8-4463-424b-a011-d99943cc01bf?daoSlug=arbitrum&amp;daoTab=proposals</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>SummaryThis proposal from the Rari Foundation requests $650,000 to integrate Arbitrum with the Rarible protocol. The funding request can be broken down into the following milestones:
 Milestone 1: Integration of Arbitrum One into the Rarible Protocol
@@ -588,78 +951,78 @@
 The proposal requests $150,000 for post-deployment protocol and marketplace support for one year, with 25% payable on the first day of each quarter. The proposal also suggests a token swap of 50,000 RARI for ARB to allow each DAO to participate in mutual governance and to be a stakeholder in their respective ecosystems.</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
         <is>
           <t>Neutral Sentiment</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Started 4 hours ago</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Started on Jun 28, 2023</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>Jana Bertram</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>Arbitrum Forum</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Fund the Arbitrum Grants Framework Proposal Milestone 1Arbitrum DAO</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Created 7 days ago</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Preliminary Discussion</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Preliminary Discussion</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Created 25 days ago</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Off-Chain Vote</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Succeeded</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Token Supply</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Grant Program</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://messari.io//governor/proposal/90fbdbfb-531c-4bae-97ee-62a009808037?daoSlug=arbitrum&amp;daoTab=proposals</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>SummaryThis proposal from the Plurality Labs Team requests 3.971 million ARB (0.08% of the total treasury) to fund the first of three milestones in a plan to form an Arbitrum DAO Pluralistic Grants Program. Funding for the first milestone can be broken down as follows:
 2.6 million ARB (72%): Funding Arbitrum ecosystem development.
@@ -670,255 +1033,279 @@
 The proposal recommends a progressive decentralization of the Pluralist Grants Program Allocator. During Milestone 1, Plurality Labs will maintain accountability for sourcing, selecting, reporting on, and delivering results of the chosen pluralist grants programs.</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>delegate.l2beat.eth0x1b68...88eead</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Start DateJul 6, 2023</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>End DateJul 13, 2023</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>Neutral Sentiment</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>Started on Jun 21, 2023</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>Disruption Joe</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Arbitrum Forum</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>ResultsFor53.15M Votes52.77%</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Against46.96M Votes46.63%</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Abstain0.61M Votes0.60%</t>
+        </is>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Mission of the Arbitrum DAOArbitrum DAO</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Created 12 days ago</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Created a month ago</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>Preliminary Discussion</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Preliminary Discussion</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Governance Update</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://messari.io//governor/proposal/62e15551-0ff4-4331-8d9b-1b1697b1ca80?daoSlug=arbitrum&amp;daoTab=proposals</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>SummaryThis proposal aims to update the Arbitrum DAO Constitution to add a "Mission" section with the following mission statement:
 "The mission of the ArbitrumDAO is to scale Ethereum with a security-first mindset and enable trustless operation of the Arbitrum Layer 2."</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
         <is>
           <t>Neutral Sentiment</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>Started on Jun 15, 2023</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>DAOStewards</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>Arbitrum Forum</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Activate Support for Account Abstraction Endpoint on One and NovaArbitrum DAO</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Created 20 days ago</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Created a month ago</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Off-Chain Vote</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Succeeded</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Release</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>On-Chain Upgrade</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://messari.io//governor/proposal/744bc973-b9fd-4d1b-8587-50bc436e3691?daoSlug=arbitrum&amp;daoTab=proposals</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>SummaryThis proposal suggests supporting the eth_sendRawTransactionConditional endpoint on the Arbitrum One and Nova mainnets. This endpoint addresses the issue of delayed transaction inclusion by allowing sequencers to reject transactions that don't meet specified conditions. Offchain Labs has already developed and tested the endpoint, minimizing implementation costs.</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>yoav.eth0xdb57...f1f800</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Start DateJun 20, 2023</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>End DateJun 27, 2023</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>Neutral Sentiment</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>Started on Jun 8, 2023</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>Jason Windawi, Alchemy</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>Arbitrum Forum</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>yoav.eth0xdb57...f1f800</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Start DateJun 20, 2023</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>End DateJun 27, 2023</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>ResultsFor60.52M Votes99.70%</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>Against105.31K Votes0.17%</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>Abstain78.64K Votes0.13%</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Building a Pluralist Grants Framework - Milestone 1Arbitrum DAO</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Created 25 days ago</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Created a month ago</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>Preliminary Discussion</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Preliminary Discussion</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Token Supply</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Grant Program</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://messari.io//governor/proposal/66c23e19-e992-4232-ae36-84126d303fe0?daoSlug=arbitrum&amp;daoTab=proposals</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t xml:space="preserve">SummaryThis proposal requests 5 million ARB (0.1% of the total treasury) to fund the first milestone of the Arbitrum Grants Framework. The goal is to increase development on Arbitrum, establish a capture-resistant grant allocation mechanism, and make governance participation effective and fun.
 The budget breakdown is as follows:
@@ -933,338 +1320,29 @@
 </t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
         <is>
           <t>Neutral Sentiment</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>Started on Jun 2, 2023</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>Disruption Joe</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>Arbitrum Forum</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Interactive Specs: Opcodes, Precompiles, etc.Arbitrum DAO</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Created a month ago</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Preliminary Discussion</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Preliminary Discussion</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Team and Operations</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Treasury Funded Expense</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>https://messari.io//governor/proposal/ca0a7187-54c2-4533-8689-786d4391feb6?daoSlug=arbitrum&amp;daoTab=proposals</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SummaryThis proposal from LimeChain requests 15,000 ARB to fund the development of an Interactive Reference Specification website for rollups, with Arbitrum being the first one. The proposal states that the website will start as a fork of evm.codes, and the team will extend the UI with the following components:
-General Overview.
-Opcodes.
-Precompiles.
-Messaging.
-</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Neutral Sentiment</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Started on May 31, 2023</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Zhivko</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Arbitrum Forum</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Distribute ARB Tokens to L3 MXC zkEVM Users to Encourage Growth on Arbitrum OneArbitrum DAO</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Created a month ago</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Preliminary Discussion</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Preliminary Discussion</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Token Supply</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Liquidity Mining Program</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>https://messari.io//governor/proposal/7a89a312-e759-41ce-b5a6-82d8d03a3822?daoSlug=arbitrum&amp;daoTab=proposals</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>SummaryThis proposal aims to distribute zkMXC tokens on the L3 layer of Arbitrum, focusing on IoT applications. The MXC zkEVM team suggests rewarding participants contributing to the L3 layer from L2, including L3 provers and bridge users on Arbitrum One, by distributing ARB tokens. This initiative seeks to incentivize the development of L3s on Arbitrum One, promoting its position as a leading L2 solution. The proposal outlines the specifications, implementation steps, timeline, and overall cost of granting 5 million ARB tokens to the first L3 MXC zkEVM.</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Neutral Sentiment</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Started on May 20, 2023</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>MXC DAO</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Arbitrum Forum</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>​ Request for Discussion: Arbitrum Foundation Transparency StandardsArbitrum DAO</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Created 2 months ago</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Preliminary Discussion</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Preliminary Discussion</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Team and Operations</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Other Project Change</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>https://messari.io//governor/proposal/b3f16888-a5b7-4730-87e5-23f7ff5255da?daoSlug=arbitrum&amp;daoTab=proposals</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>SummaryThis proposal aims to initiate discussions between the Arbitrum Foundation and stakeholders of the Arbitrum DAO to articulate clear transparency standards for the Arbitrum Foundation per AIP 1.1. The proposal outlines various examples of operational and financial disclosures for the Arbitrum community to considers.</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Neutral Sentiment</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Started on May 2, 2023</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>T_norm</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Arbitrum Forum</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Delegated Domain Allocation by QuestbookArbitrum DAO</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Created 2 months ago</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Preliminary Discussion</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Preliminary Discussion</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Team and Operations</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Grant Program</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>https://messari.io//governor/proposal/018c0e7e-8358-4b2d-8cef-bceba0b41357?daoSlug=arbitrum&amp;daoTab=proposals</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>SummaryThis proposal from Questbook aims to launch an Arbitrum grants program with a budget of $1 million to fund teams building apps on Arbitrum for two quarters. The budget will be managed by four Domain Allocators selected by the community. Questbook will facilitate the setup of domain allocators and provide tooling to run the grants program efficiently and transparently. Questbook will earn 5% of all disbursements made through Questbook as a product fee.</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Neutral Sentiment</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Started on Apr 24, 2023</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Saurabh</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Arbitrum Forum</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -1275,12 +1353,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Count ARB Balance in QiDao Vaults into Voting PowerArbitrum DAO</t>
+          <t>Interactive Specs: Opcodes, Precompiles, etc.Arbitrum DAO</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Created 2 months ago</t>
+          <t>Created a month ago</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1295,12 +1373,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Team and Operations</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Governance Update</t>
+          <t>Treasury Funded Expense</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1310,37 +1388,42 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://messari.io//governor/proposal/5d52e6f8-01a1-42e2-a223-11c8a9763f6e?daoSlug=arbitrum&amp;daoTab=proposals</t>
+          <t>https://messari.io//governor/proposal/ca0a7187-54c2-4533-8689-786d4391feb6?daoSlug=arbitrum&amp;daoTab=proposals</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>SummaryThis proposal aims to count the ARB held in QiDao vaults when tallying voting power.</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
+          <t xml:space="preserve">SummaryThis proposal from LimeChain requests 15,000 ARB to fund the development of an Interactive Reference Specification website for rollups, with Arbitrum being the first one. The proposal states that the website will start as a fork of evm.codes, and the team will extend the UI with the following components:
+General Overview.
+Opcodes.
+Precompiles.
+Messaging.
+</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
         <is>
           <t>Neutral Sentiment</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Started on Apr 17, 2023</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Benjamin.lens</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Started on May 31, 2023</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Zhivko</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>Arbitrum Forum</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -1351,22 +1434,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Return 700M ARB to the DAO Treasury (AIP 1.05)Arbitrum DAO</t>
+          <t>Distribute ARB Tokens to L3 MXC zkEVM Users to Encourage Growth on Arbitrum OneArbitrum DAO</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Created 3 months ago</t>
+          <t>Created 2 months ago</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Off-Chain Vote</t>
+          <t>Preliminary Discussion</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Preliminary Discussion</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1376,7 +1459,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Other Project Change</t>
+          <t>Liquidity Mining Program</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1386,64 +1469,40 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://messari.io//governor/proposal/6d0761e2-00fe-4593-8ee4-59327e4bf013?daoSlug=arbitrum&amp;daoTab=proposals</t>
+          <t>https://messari.io//governor/proposal/7a89a312-e759-41ce-b5a6-82d8d03a3822?daoSlug=arbitrum&amp;daoTab=proposals</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>SummaryThis proposal requests that the Arbitrum Foundation returns 700 million ARB to the DAO following AIP 1's failure. The proposal also aims to signal support for disclosing the details of the market-making deal with Wintermute, buying back ARB from Wintermute with money leftover from the $10 million OTC deal, and pausing AIP 1.1 and 1.2.</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
+          <t>SummaryThis proposal aims to distribute zkMXC tokens on the L3 layer of Arbitrum, focusing on IoT applications. The MXC zkEVM team suggests rewarding participants contributing to the L3 layer from L2, including L3 provers and bridge users on Arbitrum One, by distributing ARB tokens. This initiative seeks to incentivize the development of L3s on Arbitrum One, promoting its position as a leading L2 solution. The proposal outlines the specifications, implementation steps, timeline, and overall cost of granting 5 million ARB tokens to the first L3 MXC zkEVM.</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
         <is>
           <t>Neutral Sentiment</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Started on Apr 6, 2023</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>thiccythot</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Started on May 20, 2023</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>MXC DAO</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>Arbitrum Forum</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>clurbcapital.eth0x4bca...136e71</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Start DateApr 8, 2023</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>End DateApr 15, 2023</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>ResultsFor20.53M Votes14.57%</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Against118.33M Votes84.01%</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>Abstain1.99M Votes1.42%</t>
-        </is>
-      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1451,99 +1510,75 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Foundation and DAO Governance (AIP 1.2)Arbitrum DAO</t>
+          <t>​ Request for Discussion: Arbitrum Foundation Transparency StandardsArbitrum DAO</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Created 3 months ago</t>
+          <t>Created 2 months ago</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Off-Chain Vote</t>
+          <t>Preliminary Discussion</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Succeeded</t>
+          <t>Preliminary Discussion</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Team and Operations</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Governance Update</t>
+          <t>Other Project Change</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://messari.io//governor/proposal/72f9b109-d545-4e03-ae08-8aea02ffd016?daoSlug=arbitrum&amp;daoTab=proposals</t>
+          <t>https://messari.io//governor/proposal/b3f16888-a5b7-4730-87e5-23f7ff5255da?daoSlug=arbitrum&amp;daoTab=proposals</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>SummaryThis proposal aims to amend the Constitution, the Arbitrum Foundation Amended &amp; Restated Memorandum &amp; Articles of Association (A&amp;R M&amp;A), and Bylaws by removing references to AIP 1 and making other changes based on community feedback. The motivation behind this proposal is that AIP 1 did not pass despite being critical to governance and referenced in essential governance documents.</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
+          <t>SummaryThis proposal aims to initiate discussions between the Arbitrum Foundation and stakeholders of the Arbitrum DAO to articulate clear transparency standards for the Arbitrum Foundation per AIP 1.1. The proposal outlines various examples of operational and financial disclosures for the Arbitrum community to considers.</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
         <is>
           <t>Neutral Sentiment</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Started on Apr 5, 2023</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Lemma</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Started on May 2, 2023</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>T_norm</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>Arbitrum Forum</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>blockworksres.eth0xa5df...95d9b0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Start DateApr 10, 2023</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>End DateApr 17, 2023</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>ResultsFor137.61M Votes99.15%</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Against280.12K Votes0.20%</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>Abstain0.90M Votes0.64%</t>
-        </is>
-      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1551,7 +1586,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lockup, Budget, and Transparency (AIP 1.1)Arbitrum DAO</t>
+          <t>Delegated Domain Allocation by QuestbookArbitrum DAO</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1576,72 +1611,73 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Project Team</t>
+          <t>Grant Program</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://messari.io//governor/proposal/36827350-bc24-416b-a411-1fc7a613b0c2?daoSlug=arbitrum&amp;daoTab=proposals</t>
+          <t>https://messari.io//governor/proposal/018c0e7e-8358-4b2d-8cef-bceba0b41357?daoSlug=arbitrum&amp;daoTab=proposals</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>SummaryThis proposal aims to implement a lockup, a budget, and transparency reporting for the 7.5% ARB supply tokens in the Administrative Budget Wallet of The Arbitrum Foundation. The proposed budget for the next twelve months is $36 million, half paid in USD and half in locked ARB tokens. Additional funds will be used to pursue ecosystem growth opportunities and strategic partnerships. The Arbitrum Foundation will be committed to providing comprehensive transparency reports on its operations.</t>
+          <t>SummaryThis proposal from Questbook aims to launch an Arbitrum grants program with a budget of $1 million to fund teams building apps on Arbitrum for two quarters. The budget will be managed by four Domain Allocators chosen from and by the community who will each be responsible for a Domain. Questbook will help facilitate setting up these Domain Allocators and provide the tooling to run the grants program in an efficient and transparent way.
+The proposal suggests using Tally’s Zodiac Governor Module for security purposes. Furthermore, a Grants SAFE with a 4-of-6 multisig will be set up between the program manager and four Domain Allocators. Four SAFEs will be created for each domain with a 3-of-3 multisig setup between the program manager, the specific domain allocator, and one member from the DAO.</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
+          <t>bobrossi.eth0xb29a...0c946b</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Start DateJun 30, 2023</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>End DateJul 7, 2023</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>Neutral Sentiment</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Started on Apr 5, 2023</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Lemma</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Started on Apr 24, 2023</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Saurabh</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>Arbitrum Forum</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>blockworksres.eth0xa5df...95d9b0</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Start DateApr 10, 2023</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>End DateApr 17, 2023</t>
-        </is>
-      </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>ResultsFor137.01M Votes98.13%</t>
+          <t>ResultsFor85.97M Votes82.23%</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Against1.22M Votes0.88%</t>
+          <t>Against18.46M Votes17.66%</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>Abstain1.39M Votes1%</t>
+          <t>Abstain119.89K Votes0.11%</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1687,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Decrease Censorship Delay from 24 hours to 4 hoursArbitrum DAO</t>
+          <t>Count ARB Balance in QiDao Vaults into Voting PowerArbitrum DAO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1671,52 +1707,52 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Parameter Change</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Other Network Change</t>
+          <t>Governance Update</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://messari.io//governor/proposal/1aa8802d-9603-4597-9f79-6b66bdb0e129?daoSlug=arbitrum&amp;daoTab=proposals</t>
+          <t>https://messari.io//governor/proposal/5d52e6f8-01a1-42e2-a223-11c8a9763f6e?daoSlug=arbitrum&amp;daoTab=proposals</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>SummaryThis proposal aims to decrease the censorship-resistant delay time for transaction force inclusion from 24 hours to 4 hours. This change will restrict the power of the sequencer to backdate transactions from 24 hours to 4 hours.</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
+          <t>SummaryThis proposal aims to count the ARB held in QiDao vaults when tallying voting power.</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
         <is>
           <t>Neutral Sentiment</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Started on Apr 2, 2023</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Shotaro</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Started on Apr 17, 2023</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Benjamin.lens</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>Arbitrum Forum</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -1727,7 +1763,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Setting up the First Arbitrum Community House in the Greater Helsinki RegionArbitrum DAO</t>
+          <t>Return 700M ARB to the DAO Treasury (AIP 1.05)Arbitrum DAO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1737,65 +1773,89 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Preliminary Discussion</t>
+          <t>Off-Chain Vote</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Preliminary Discussion</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Team and Operations</t>
+          <t>Token Supply</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Treasury Funded Expense</t>
+          <t>Other Project Change</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://messari.io//governor/proposal/faf69ff8-e95e-4199-9ca6-7ccdb01e1331?daoSlug=arbitrum&amp;daoTab=proposals</t>
+          <t>https://messari.io//governor/proposal/6d0761e2-00fe-4593-8ee4-59327e4bf013?daoSlug=arbitrum&amp;daoTab=proposals</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>SummaryThis proposal requests a grant of ~$925,500 to form the first Arbitrum Community House (ACH) in the greater Helsinki region in Finland to drive Arbitrum adoption, awareness, and developer interest within the region. The grant will fund the operations of the ACH for 30 months.</t>
+          <t>SummaryThis proposal requests that the Arbitrum Foundation returns 700 million ARB to the DAO following AIP 1's failure. The proposal also aims to signal support for disclosing the details of the market-making deal with Wintermute, buying back ARB from Wintermute with money leftover from the $10 million OTC deal, and pausing AIP 1.1 and 1.2.</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
+          <t>clurbcapital.eth0x4bca...136e71</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Start DateApr 8, 2023</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>End DateApr 15, 2023</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
           <t>Neutral Sentiment</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Started on Apr 1, 2023</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Juuso Roinevirta</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Started on Apr 6, 2023</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>thiccythot</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>Arbitrum Forum</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>ResultsFor20.53M Votes14.57%</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Against118.33M Votes84.01%</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Abstain1.99M Votes1.42%</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1803,95 +1863,447 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Foundation and DAO Governance (AIP 1.2)Arbitrum DAO</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Created 3 months ago</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Off-Chain Vote</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Succeeded</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Governance Update</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://messari.io//governor/proposal/72f9b109-d545-4e03-ae08-8aea02ffd016?daoSlug=arbitrum&amp;daoTab=proposals</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>SummaryThis proposal aims to amend the Constitution, the Arbitrum Foundation Amended &amp; Restated Memorandum &amp; Articles of Association (A&amp;R M&amp;A), and Bylaws by removing references to AIP 1 and making other changes based on community feedback. The motivation behind this proposal is that AIP 1 did not pass despite being critical to governance and referenced in essential governance documents.</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>blockworksres.eth0xa5df...95d9b0</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Start DateApr 10, 2023</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>End DateApr 17, 2023</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Neutral Sentiment</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Started on Apr 5, 2023</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Lemma</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Arbitrum Forum</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>ResultsFor137.61M Votes99.15%</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Against280.12K Votes0.20%</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Abstain0.90M Votes0.64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Lockup, Budget, and Transparency (AIP 1.1)Arbitrum DAO</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Created 3 months ago</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Off-Chain Vote</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Succeeded</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Team and Operations</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Project Team</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://messari.io//governor/proposal/36827350-bc24-416b-a411-1fc7a613b0c2?daoSlug=arbitrum&amp;daoTab=proposals</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>SummaryThis proposal aims to implement a lockup, a budget, and transparency reporting for the 7.5% ARB supply tokens in the Administrative Budget Wallet of The Arbitrum Foundation. The proposed budget for the next twelve months is $36 million, half paid in USD and half in locked ARB tokens. Additional funds will be used to pursue ecosystem growth opportunities and strategic partnerships. The Arbitrum Foundation will be committed to providing comprehensive transparency reports on its operations.</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>blockworksres.eth0xa5df...95d9b0</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Start DateApr 10, 2023</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>End DateApr 17, 2023</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Neutral Sentiment</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Started on Apr 5, 2023</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Lemma</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Arbitrum Forum</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>ResultsFor137.01M Votes98.13%</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Against1.22M Votes0.88%</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Abstain1.39M Votes1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Decrease Censorship Delay from 24 hours to 4 hoursArbitrum DAO</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Created 3 months ago</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Preliminary Discussion</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Preliminary Discussion</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Parameter Change</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Other Network Change</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://messari.io//governor/proposal/1aa8802d-9603-4597-9f79-6b66bdb0e129?daoSlug=arbitrum&amp;daoTab=proposals</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>SummaryThis proposal aims to decrease the censorship-resistant delay time for transaction force inclusion from 24 hours to 4 hours. This change will restrict the power of the sequencer to backdate transactions from 24 hours to 4 hours.</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Neutral Sentiment</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Started on Apr 2, 2023</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Shotaro</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Arbitrum Forum</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Setting up the First Arbitrum Community House in the Greater Helsinki RegionArbitrum DAO</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Created 3 months ago</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Preliminary Discussion</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Preliminary Discussion</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Team and Operations</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Treasury Funded Expense</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://messari.io//governor/proposal/faf69ff8-e95e-4199-9ca6-7ccdb01e1331?daoSlug=arbitrum&amp;daoTab=proposals</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>SummaryThis proposal requests a grant of ~$925,500 to form the first Arbitrum Community House (ACH) in the greater Helsinki region in Finland to drive Arbitrum adoption, awareness, and developer interest within the region. The grant will fund the operations of the ACH for 30 months.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Neutral Sentiment</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Started on Apr 1, 2023</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Juuso Roinevirta</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Arbitrum Forum</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>Arbitrum Improvement Proposal Framework (AIP 1)Arbitrum DAO</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Created 3 months ago</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Created 4 months ago</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>Off-Chain Vote</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Governance Update</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://messari.io//governor/proposal/f542ea1e-08f1-4e6e-a555-a2009bd02a6b?daoSlug=arbitrum&amp;daoTab=proposals</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>SummaryThis proposal aims to ratify the Arbitrum Improvement Proposal (AIP) framework and the Arbitrum Constitution, and initiate the ArbitrumDAO. The proposal details the specific governance processes, committees, and guidelines for the DAO to follow. Additionally, 750 million ARB will be transferred to the Arbitrum Foundation to fund the Administrative Budget Wallet for special grants, reimburse service providers for the set up costs associated with the Arbitrum Foundation, and to cover ongoing administrative and operational costs.</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0x74369add...af0d9084e8</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Start DateMar 28, 2023</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>End DateApr 4, 2023</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>Neutral Sentiment</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>Started on Mar 15, 2023</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t xml:space="preserve">Lemma Ltd. </t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>Arbitrum Forum</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>0x74369add...af0d9084e8</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Start DateMar 28, 2023</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>End DateApr 4, 2023</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>ResultsFor16.42M Votes12.54%</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>Against100.34M Votes76.67%</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>Abstain14.12M Votes10.79%</t>
         </is>
